--- a/Assets/Resources/Config/Quest/QuestList.xlsx
+++ b/Assets/Resources/Config/Quest/QuestList.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="List" sheetId="1" r:id="rId1"/>
-    <sheet name="note" sheetId="2" r:id="rId2"/>
+    <sheet name="List" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="note" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,11 +28,38 @@
   <connection id="2" name="ChatEventList1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\WordSpace\sangharama\Assets\Resources\Config\Story\ChatEventList.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="3" name="QuestList" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\DoGame\sangharama\Assets\Resources\Config\Quest\QuestList.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="4" name="QuestList1" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\DoGame\sangharama\Assets\Resources\Config\Quest\QuestList.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="5" name="QuestList2" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\DoGame\sangharama\Assets\Resources\Config\Quest\QuestList.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="6" name="QuestList3" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\DoGame\sangharama\Assets\Resources\Config\Quest\QuestList.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="7" name="QuestList4" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\DoGame\sangharama\Assets\Resources\Config\Quest\QuestList.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="8" name="QuestList5" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\DoGame\sangharama\Assets\Resources\Config\Quest\QuestList.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="9" name="QuestList6" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\DoGame\sangharama\Assets\Resources\Config\Quest\QuestList.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="10" name="QuestList7" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\DoGame\sangharama\Assets\Resources\Config\Quest\QuestList.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="11" name="QuestList8" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\DoGame\sangharama\Assets\Resources\Config\Quest\QuestList.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="106">
   <si>
     <t>PutGoods</t>
   </si>
@@ -45,9 +73,6 @@
     <t>Golds</t>
   </si>
   <si>
-    <t>InMap</t>
-  </si>
-  <si>
     <t>Arrive</t>
   </si>
   <si>
@@ -60,106 +85,319 @@
     <t>0,3</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>start</t>
+    <t>持有某物品时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次数，物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollectGoods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集出某个东西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arrive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到达某个地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱达到一定数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComposeGoods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成成功物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SellGoods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出特定物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PutGoods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上架特定物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComposeProperty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成成功某个属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mines</t>
+  </si>
+  <si>
+    <t>Questgroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smallicon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bigicon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuestType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actionIcon_20</t>
+  </si>
+  <si>
+    <t>actionIcon_18</t>
+  </si>
+  <si>
+    <t>任务名称1</t>
+  </si>
+  <si>
+    <t>这是任务描述1</t>
+  </si>
+  <si>
+    <t>0,2</t>
+  </si>
+  <si>
+    <t>任务信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务前置条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务完成条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actionIcon_21</t>
+  </si>
+  <si>
+    <t>actionIcon_22</t>
+  </si>
+  <si>
+    <t>actionIcon_23</t>
+  </si>
+  <si>
+    <t>actionIcon_24</t>
+  </si>
+  <si>
+    <t>actionIcon_25</t>
+  </si>
+  <si>
+    <t>actionIcon_26</t>
+  </si>
+  <si>
+    <t>actionIcon_27</t>
+  </si>
+  <si>
+    <t>actionIcon_28</t>
+  </si>
+  <si>
+    <t>actionIcon_19</t>
+  </si>
+  <si>
+    <t>任务名称2</t>
+  </si>
+  <si>
+    <t>任务名称3</t>
+  </si>
+  <si>
+    <t>任务名称4</t>
+  </si>
+  <si>
+    <t>任务名称5</t>
+  </si>
+  <si>
+    <t>任务名称6</t>
+  </si>
+  <si>
+    <t>任务名称7</t>
+  </si>
+  <si>
+    <t>任务名称8</t>
+  </si>
+  <si>
+    <t>任务名称9</t>
+  </si>
+  <si>
+    <t>这是任务描述2</t>
+  </si>
+  <si>
+    <t>这是任务描述3</t>
+  </si>
+  <si>
+    <t>这是任务描述4</t>
+  </si>
+  <si>
+    <t>这是任务描述5</t>
+  </si>
+  <si>
+    <t>这是任务描述6</t>
+  </si>
+  <si>
+    <t>这是任务描述7</t>
+  </si>
+  <si>
+    <t>这是任务描述8</t>
+  </si>
+  <si>
+    <t>这是任务描述9</t>
+  </si>
+  <si>
+    <t>0,4</t>
+  </si>
+  <si>
+    <t>0,5</t>
+  </si>
+  <si>
+    <t>0,6</t>
+  </si>
+  <si>
+    <t>0,7</t>
+  </si>
+  <si>
+    <t>Mines</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集达到一定数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComposeProperty</t>
   </si>
   <si>
     <t>shop1_1</t>
   </si>
   <si>
+    <t>奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,8</t>
+  </si>
+  <si>
+    <t>0,9</t>
+  </si>
+  <si>
+    <t>0,10</t>
+  </si>
+  <si>
     <t>shop1_2</t>
   </si>
   <si>
-    <t>2,2</t>
-  </si>
-  <si>
-    <t>持有某物品时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>次数，物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CollectGoods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集出某个东西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arrive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>到达某个地点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入地图界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Golds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金钱达到一定数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComposeGoods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成成功物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入商店界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SellGoods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖出特定物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PutGoods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上架特定物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
+    <t>shop1_3</t>
+  </si>
+  <si>
+    <t>shop1_4</t>
+  </si>
+  <si>
+    <t>shop1_5</t>
+  </si>
+  <si>
+    <t>shop1_6</t>
+  </si>
+  <si>
+    <t>shop1_7</t>
+  </si>
+  <si>
+    <t>shop1_8</t>
+  </si>
+  <si>
+    <t>shop1_9</t>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Des</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -167,7 +405,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EventType</t>
+    <t>GroupID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smallicon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Des</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuestType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -175,46 +425,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Parameter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComposeProperty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成成功某个属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InShop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集达到一定数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mines</t>
-  </si>
-  <si>
-    <t>ComposeProperty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InShop</t>
+    <t>Exp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -222,7 +433,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,19 +448,159 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -258,14 +609,497 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="32">
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -282,17 +1116,40 @@
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
   <Schema ID="Schema2">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
-      <xsd:element nillable="true" name="ChatEventList">
+      <xsd:element nillable="true" name="QuestList">
         <xsd:complexType>
           <xsd:sequence minOccurs="0">
-            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="ChatEvent" form="unqualified">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Quest" form="unqualified">
               <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" name="Need" form="unqualified">
+                    <xsd:complexType>
+                      <xsd:attribute name="Quest" form="unqualified" type="xsd:integer"/>
+                      <xsd:attribute name="Goods" form="unqualified" type="xsd:string"/>
+                    </xsd:complexType>
+                  </xsd:element>
+                  <xsd:element minOccurs="0" nillable="true" name="Complete" form="unqualified">
+                    <xsd:complexType>
+                      <xsd:attribute name="QuestType" form="unqualified" type="xsd:string"/>
+                      <xsd:attribute name="Num" form="unqualified" type="xsd:integer"/>
+                      <xsd:attribute name="Parameter" form="unqualified" type="xsd:string"/>
+                    </xsd:complexType>
+                  </xsd:element>
+                  <xsd:element minOccurs="0" nillable="true" name="Award" form="unqualified">
+                    <xsd:complexType>
+                      <xsd:attribute name="Golds" form="unqualified" type="xsd:integer"/>
+                      <xsd:attribute name="Exp" form="unqualified" type="xsd:integer"/>
+                      <xsd:attribute name="Story" form="unqualified" type="xsd:string"/>
+                    </xsd:complexType>
+                  </xsd:element>
+                </xsd:sequence>
                 <xsd:attribute name="ID" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="EventType" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="Num" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="Parameter" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="EventItem" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="StoryName" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="Questgroup" form="unqualified" type="xsd:integer"/>
+                <xsd:attribute name="GroupID" form="unqualified" type="xsd:integer"/>
+                <xsd:attribute name="Smallicon" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="Bigicon" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="Name" form="unqualified" type="xsd:string"/>
+                <xsd:attribute name="Des" form="unqualified" type="xsd:string"/>
               </xsd:complexType>
             </xsd:element>
           </xsd:sequence>
@@ -300,33 +1157,84 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="2" Name="ChatEventList_映射" RootElement="ChatEventList" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="2" DataBindingLoadMode="1"/>
+  <Map ID="11" Name="QuestList_映射" RootElement="QuestList" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="11" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F11" tableType="xml" totalsRowShown="0" connectionId="2">
-  <autoFilter ref="A1:F11"/>
-  <tableColumns count="6">
-    <tableColumn id="1" uniqueName="ID" name="ID">
-      <xmlColumnPr mapId="2" xpath="/ChatEventList/ChatEvent/@ID" xmlDataType="integer"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A2:O11" totalsRowShown="0">
+  <autoFilter ref="A2:O11"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="ID" dataDxfId="31"/>
+    <tableColumn id="2" name="Questgroup" dataDxfId="30"/>
+    <tableColumn id="3" name="GroupID" dataDxfId="29"/>
+    <tableColumn id="4" name="Smallicon" dataDxfId="28"/>
+    <tableColumn id="5" name="Bigicon" dataDxfId="27"/>
+    <tableColumn id="6" name="Name" dataDxfId="26"/>
+    <tableColumn id="7" name="Des" dataDxfId="25"/>
+    <tableColumn id="8" name="Quest" dataDxfId="24"/>
+    <tableColumn id="9" name="Goods" dataDxfId="23"/>
+    <tableColumn id="10" name="QuestType" dataDxfId="22"/>
+    <tableColumn id="11" name="Num" dataDxfId="21"/>
+    <tableColumn id="12" name="Parameter" dataDxfId="20"/>
+    <tableColumn id="13" name="Golds" dataDxfId="19"/>
+    <tableColumn id="14" name="Exp" dataDxfId="18"/>
+    <tableColumn id="15" name="Story" dataDxfId="17"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:O11" tableType="xml" totalsRowShown="0" headerRowDxfId="16" dataDxfId="0" connectionId="11">
+  <autoFilter ref="A2:O11"/>
+  <tableColumns count="15">
+    <tableColumn id="1" uniqueName="ID" name="ID" dataDxfId="15">
+      <xmlColumnPr mapId="11" xpath="/QuestList/Quest/@ID" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="EventType" name="EventType">
-      <xmlColumnPr mapId="2" xpath="/ChatEventList/ChatEvent/@EventType" xmlDataType="string"/>
+    <tableColumn id="2" uniqueName="Questgroup" name="Questgroup" dataDxfId="14">
+      <xmlColumnPr mapId="11" xpath="/QuestList/Quest/@Questgroup" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="Num" name="Num">
-      <xmlColumnPr mapId="2" xpath="/ChatEventList/ChatEvent/@Num" xmlDataType="integer"/>
+    <tableColumn id="3" uniqueName="GroupID" name="GroupID" dataDxfId="13">
+      <xmlColumnPr mapId="11" xpath="/QuestList/Quest/@GroupID" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="Parameter" name="Parameter">
-      <xmlColumnPr mapId="2" xpath="/ChatEventList/ChatEvent/@Parameter" xmlDataType="string"/>
+    <tableColumn id="4" uniqueName="Smallicon" name="Smallicon" dataDxfId="12">
+      <xmlColumnPr mapId="11" xpath="/QuestList/Quest/@Smallicon" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="EventItem" name="EventItem">
-      <xmlColumnPr mapId="2" xpath="/ChatEventList/ChatEvent/@EventItem" xmlDataType="string"/>
+    <tableColumn id="5" uniqueName="Bigicon" name="Bigicon" dataDxfId="11">
+      <xmlColumnPr mapId="11" xpath="/QuestList/Quest/@Bigicon" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="StoryName" name="StoryName">
-      <xmlColumnPr mapId="2" xpath="/ChatEventList/ChatEvent/@StoryName" xmlDataType="string"/>
+    <tableColumn id="6" uniqueName="Name" name="Name" dataDxfId="10">
+      <xmlColumnPr mapId="11" xpath="/QuestList/Quest/@Name" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="7" uniqueName="Des" name="Des" dataDxfId="9">
+      <xmlColumnPr mapId="11" xpath="/QuestList/Quest/@Des" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="8" uniqueName="Quest" name="Quest" dataDxfId="8">
+      <xmlColumnPr mapId="11" xpath="/QuestList/Quest/Need/@Quest" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="9" uniqueName="Goods" name="Goods" dataDxfId="7">
+      <xmlColumnPr mapId="11" xpath="/QuestList/Quest/Need/@Goods" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="10" uniqueName="QuestType" name="QuestType" dataDxfId="6">
+      <xmlColumnPr mapId="11" xpath="/QuestList/Quest/Complete/@QuestType" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="11" uniqueName="Num" name="Num" dataDxfId="5">
+      <xmlColumnPr mapId="11" xpath="/QuestList/Quest/Complete/@Num" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="12" uniqueName="Parameter" name="Parameter" dataDxfId="4">
+      <xmlColumnPr mapId="11" xpath="/QuestList/Quest/Complete/@Parameter" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="13" uniqueName="Golds" name="Golds" dataDxfId="3">
+      <xmlColumnPr mapId="11" xpath="/QuestList/Quest/Award/@Golds" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="14" uniqueName="Exp" name="Exp" dataDxfId="2">
+      <xmlColumnPr mapId="11" xpath="/QuestList/Quest/Award/@Exp" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="15" uniqueName="Story" name="Story" dataDxfId="1">
+      <xmlColumnPr mapId="11" xpath="/QuestList/Quest/Award/@Story" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -596,215 +1504,1068 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="37"/>
+      <c r="J1" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="39"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12">
+        <v>3</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" s="1">
+        <v>500</v>
+      </c>
+      <c r="N3" s="1">
+        <v>100</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="17">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="12">
+        <v>3</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="1">
+        <v>501</v>
+      </c>
+      <c r="N4" s="1">
+        <v>101</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="17">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="12">
+        <v>3</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="1">
+        <v>502</v>
+      </c>
+      <c r="N5" s="1">
+        <v>102</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="17">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="12">
+        <v>3</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="1">
+        <v>503</v>
+      </c>
+      <c r="N6" s="1">
+        <v>103</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="17">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="12">
+        <v>3</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" s="1">
+        <v>504</v>
+      </c>
+      <c r="N7" s="1">
+        <v>104</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="17">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="2">
+        <v>6</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="12">
+        <v>3</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="1">
+        <v>505</v>
+      </c>
+      <c r="N8" s="1">
+        <v>105</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="17">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="2">
+        <v>7</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="12">
+        <v>3</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" s="1">
+        <v>506</v>
+      </c>
+      <c r="N9" s="1">
+        <v>106</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="17">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="12">
+        <v>3</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" s="1">
+        <v>507</v>
+      </c>
+      <c r="N10" s="1">
+        <v>107</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="18">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>3</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="12">
+        <v>3</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="1">
+        <v>508</v>
+      </c>
+      <c r="N11" s="1">
+        <v>108</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>note!$B$2:$B$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>J3:J11</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.75" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.625" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.25" style="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="37"/>
+      <c r="J1" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="39"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" s="45"/>
+      <c r="O1" s="46"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="47">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="48">
+        <v>1</v>
+      </c>
+      <c r="C3" s="49">
+        <v>1</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="52">
+        <v>1</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="K3" s="55">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="L3" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="57">
+        <v>500</v>
+      </c>
+      <c r="N3" s="58">
+        <v>100</v>
+      </c>
+      <c r="O3" s="59" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="47">
+        <v>2</v>
+      </c>
+      <c r="B4" s="48">
+        <v>1</v>
+      </c>
+      <c r="C4" s="49">
+        <v>2</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="52">
+        <v>2</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="55">
+        <v>3</v>
+      </c>
+      <c r="L4" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="M4" s="57">
+        <v>501</v>
+      </c>
+      <c r="N4" s="58">
+        <v>101</v>
+      </c>
+      <c r="O4" s="59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="47">
+        <v>3</v>
+      </c>
+      <c r="B5" s="48">
+        <v>1</v>
+      </c>
+      <c r="C5" s="49">
+        <v>3</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="52">
+        <v>3</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="K5" s="55">
+        <v>3</v>
+      </c>
+      <c r="L5" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="57">
+        <v>502</v>
+      </c>
+      <c r="N5" s="58">
+        <v>102</v>
+      </c>
+      <c r="O5" s="59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="47">
+        <v>4</v>
+      </c>
+      <c r="B6" s="48">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C6" s="49">
+        <v>4</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="52">
+        <v>4</v>
+      </c>
+      <c r="I6" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="55">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="L6" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="57">
+        <v>503</v>
+      </c>
+      <c r="N6" s="58">
+        <v>103</v>
+      </c>
+      <c r="O6" s="59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="47">
+        <v>5</v>
+      </c>
+      <c r="B7" s="48">
+        <v>1</v>
+      </c>
+      <c r="C7" s="49">
+        <v>5</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="52">
+        <v>5</v>
+      </c>
+      <c r="I7" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="55">
+        <v>3</v>
+      </c>
+      <c r="L7" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" s="57">
+        <v>504</v>
+      </c>
+      <c r="N7" s="58">
+        <v>104</v>
+      </c>
+      <c r="O7" s="59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="47">
+        <v>6</v>
+      </c>
+      <c r="B8" s="48">
+        <v>1</v>
+      </c>
+      <c r="C8" s="49">
+        <v>6</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="52">
+        <v>6</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="55">
+        <v>3</v>
+      </c>
+      <c r="L8" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="57">
+        <v>505</v>
+      </c>
+      <c r="N8" s="58">
+        <v>105</v>
+      </c>
+      <c r="O8" s="59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="47">
+        <v>7</v>
+      </c>
+      <c r="B9" s="48">
+        <v>1</v>
+      </c>
+      <c r="C9" s="49">
+        <v>7</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="52">
+        <v>7</v>
+      </c>
+      <c r="I9" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="55">
+        <v>3</v>
+      </c>
+      <c r="L9" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" s="57">
+        <v>506</v>
+      </c>
+      <c r="N9" s="58">
+        <v>106</v>
+      </c>
+      <c r="O9" s="59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="47">
         <v>8</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="B10" s="48">
+        <v>2</v>
+      </c>
+      <c r="C10" s="49">
+        <v>1</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="55">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
+      <c r="L10" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="57">
+        <v>507</v>
+      </c>
+      <c r="N10" s="58">
+        <v>107</v>
+      </c>
+      <c r="O10" s="59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="47">
+        <v>9</v>
+      </c>
+      <c r="B11" s="48">
+        <v>3</v>
+      </c>
+      <c r="C11" s="49">
+        <v>1</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="52"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="K11" s="55">
         <v>3</v>
       </c>
-      <c r="C11">
-        <v>1000</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>10</v>
+      <c r="L11" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="57">
+        <v>508</v>
+      </c>
+      <c r="N11" s="58">
+        <v>108</v>
+      </c>
+      <c r="O11" s="59" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -814,12 +2575,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -831,153 +2592,125 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
